--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn2-Nrcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn2-Nrcam.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01086633333333333</v>
+        <v>0.023556</v>
       </c>
       <c r="H2">
-        <v>0.032599</v>
+        <v>0.07066799999999999</v>
       </c>
       <c r="I2">
-        <v>0.03298188672296692</v>
+        <v>0.08088674619362546</v>
       </c>
       <c r="J2">
-        <v>0.03298188672296692</v>
+        <v>0.08088674619362549</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02234633333333333</v>
+        <v>0.007418999999999999</v>
       </c>
       <c r="N2">
-        <v>0.067039</v>
+        <v>0.022257</v>
       </c>
       <c r="O2">
-        <v>0.001969482437912491</v>
+        <v>0.00543403025741878</v>
       </c>
       <c r="P2">
-        <v>0.001969482437912491</v>
+        <v>0.00543403025741878</v>
       </c>
       <c r="Q2">
-        <v>0.0002428227067777778</v>
+        <v>0.000174761964</v>
       </c>
       <c r="R2">
-        <v>0.002185404361</v>
+        <v>0.001572857676</v>
       </c>
       <c r="S2">
-        <v>6.495724667010252E-05</v>
+        <v>0.0004395410262403141</v>
       </c>
       <c r="T2">
-        <v>6.495724667010252E-05</v>
+        <v>0.0004395410262403142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01086633333333333</v>
+        <v>0.023556</v>
       </c>
       <c r="H3">
-        <v>0.032599</v>
+        <v>0.07066799999999999</v>
       </c>
       <c r="I3">
-        <v>0.03298188672296692</v>
+        <v>0.08088674619362546</v>
       </c>
       <c r="J3">
-        <v>0.03298188672296692</v>
+        <v>0.08088674619362549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.492052</v>
       </c>
       <c r="O3">
-        <v>0.04383374170933649</v>
+        <v>0.3642834035872852</v>
       </c>
       <c r="P3">
-        <v>0.04383374170933648</v>
+        <v>0.3642834035872852</v>
       </c>
       <c r="Q3">
-        <v>0.005404378127555556</v>
+        <v>0.011715592304</v>
       </c>
       <c r="R3">
-        <v>0.04863940314800001</v>
+        <v>0.105440330736</v>
       </c>
       <c r="S3">
-        <v>0.001445719503701127</v>
+        <v>0.02946569920851477</v>
       </c>
       <c r="T3">
-        <v>0.001445719503701126</v>
+        <v>0.02946569920851478</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01086633333333333</v>
+        <v>0.023556</v>
       </c>
       <c r="H4">
-        <v>0.032599</v>
+        <v>0.07066799999999999</v>
       </c>
       <c r="I4">
-        <v>0.03298188672296692</v>
+        <v>0.08088674619362546</v>
       </c>
       <c r="J4">
-        <v>0.03298188672296692</v>
+        <v>0.08088674619362549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.82660033333333</v>
+        <v>0.8605153333333333</v>
       </c>
       <c r="N4">
-        <v>32.479801</v>
+        <v>2.581546</v>
       </c>
       <c r="O4">
-        <v>0.954196775852751</v>
+        <v>0.630282566155296</v>
       </c>
       <c r="P4">
-        <v>0.954196775852751</v>
+        <v>0.630282566155296</v>
       </c>
       <c r="Q4">
-        <v>0.1176454480887778</v>
+        <v>0.020270299192</v>
       </c>
       <c r="R4">
-        <v>1.058809032799</v>
+        <v>0.182432692728</v>
       </c>
       <c r="S4">
-        <v>0.03147120997259569</v>
+        <v>0.05098150595887038</v>
       </c>
       <c r="T4">
-        <v>0.03147120997259569</v>
+        <v>0.05098150595887039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.7504299999999999</v>
       </c>
       <c r="I5">
-        <v>0.7592440643429574</v>
+        <v>0.8589438069010353</v>
       </c>
       <c r="J5">
-        <v>0.7592440643429573</v>
+        <v>0.8589438069010354</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02234633333333333</v>
+        <v>0.007418999999999999</v>
       </c>
       <c r="N5">
-        <v>0.067039</v>
+        <v>0.022257</v>
       </c>
       <c r="O5">
-        <v>0.001969482437912491</v>
+        <v>0.00543403025741878</v>
       </c>
       <c r="P5">
-        <v>0.001969482437912491</v>
+        <v>0.00543403025741878</v>
       </c>
       <c r="Q5">
-        <v>0.005589786307777777</v>
+        <v>0.00185581339</v>
       </c>
       <c r="R5">
-        <v>0.05030807676999999</v>
+        <v>0.01670232051</v>
       </c>
       <c r="S5">
-        <v>0.001495317850812756</v>
+        <v>0.0046675266361227</v>
       </c>
       <c r="T5">
-        <v>0.001495317850812756</v>
+        <v>0.0046675266361227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.7504299999999999</v>
       </c>
       <c r="I6">
-        <v>0.7592440643429574</v>
+        <v>0.8589438069010353</v>
       </c>
       <c r="J6">
-        <v>0.7592440643429573</v>
+        <v>0.8589438069010354</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.492052</v>
       </c>
       <c r="O6">
-        <v>0.04383374170933649</v>
+        <v>0.3642834035872852</v>
       </c>
       <c r="P6">
-        <v>0.04383374170933648</v>
+        <v>0.3642834035872852</v>
       </c>
       <c r="Q6">
         <v>0.1244089535955556</v>
@@ -818,10 +818,10 @@
         <v>1.11968058236</v>
       </c>
       <c r="S6">
-        <v>0.03328050821075605</v>
+        <v>0.3128989734681291</v>
       </c>
       <c r="T6">
-        <v>0.03328050821075604</v>
+        <v>0.3128989734681291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.7504299999999999</v>
       </c>
       <c r="I7">
-        <v>0.7592440643429574</v>
+        <v>0.8589438069010353</v>
       </c>
       <c r="J7">
-        <v>0.7592440643429573</v>
+        <v>0.8589438069010354</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.82660033333333</v>
+        <v>0.8605153333333333</v>
       </c>
       <c r="N7">
-        <v>32.479801</v>
+        <v>2.581546</v>
       </c>
       <c r="O7">
-        <v>0.954196775852751</v>
+        <v>0.630282566155296</v>
       </c>
       <c r="P7">
-        <v>0.954196775852751</v>
+        <v>0.630282566155296</v>
       </c>
       <c r="Q7">
-        <v>2.708201896047778</v>
+        <v>0.2152521738644444</v>
       </c>
       <c r="R7">
-        <v>24.37381706443</v>
+        <v>1.93726956478</v>
       </c>
       <c r="S7">
-        <v>0.7244682382813886</v>
+        <v>0.5413773067967835</v>
       </c>
       <c r="T7">
-        <v>0.7244682382813885</v>
+        <v>0.5413773067967836</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.068454</v>
+        <v>0.01752266666666667</v>
       </c>
       <c r="H8">
-        <v>0.205362</v>
+        <v>0.052568</v>
       </c>
       <c r="I8">
-        <v>0.2077740489340757</v>
+        <v>0.0601694469053391</v>
       </c>
       <c r="J8">
-        <v>0.2077740489340757</v>
+        <v>0.06016944690533912</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02234633333333333</v>
+        <v>0.007418999999999999</v>
       </c>
       <c r="N8">
-        <v>0.067039</v>
+        <v>0.022257</v>
       </c>
       <c r="O8">
-        <v>0.001969482437912491</v>
+        <v>0.00543403025741878</v>
       </c>
       <c r="P8">
-        <v>0.001969482437912491</v>
+        <v>0.00543403025741878</v>
       </c>
       <c r="Q8">
-        <v>0.001529695902</v>
+        <v>0.000130000664</v>
       </c>
       <c r="R8">
-        <v>0.013767263118</v>
+        <v>0.001170005976</v>
       </c>
       <c r="S8">
-        <v>0.0004092073404296326</v>
+        <v>0.0003269625950557654</v>
       </c>
       <c r="T8">
-        <v>0.0004092073404296326</v>
+        <v>0.0003269625950557655</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.068454</v>
+        <v>0.01752266666666667</v>
       </c>
       <c r="H9">
-        <v>0.205362</v>
+        <v>0.052568</v>
       </c>
       <c r="I9">
-        <v>0.2077740489340757</v>
+        <v>0.0601694469053391</v>
       </c>
       <c r="J9">
-        <v>0.2077740489340757</v>
+        <v>0.06016944690533912</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.492052</v>
       </c>
       <c r="O9">
-        <v>0.04383374170933649</v>
+        <v>0.3642834035872852</v>
       </c>
       <c r="P9">
-        <v>0.04383374170933648</v>
+        <v>0.3642834035872852</v>
       </c>
       <c r="Q9">
-        <v>0.034045642536</v>
+        <v>0.008714909948444444</v>
       </c>
       <c r="R9">
-        <v>0.306410782824</v>
+        <v>0.07843418953600001</v>
       </c>
       <c r="S9">
-        <v>0.009107513994879314</v>
+        <v>0.02191873091064137</v>
       </c>
       <c r="T9">
-        <v>0.009107513994879312</v>
+        <v>0.02191873091064138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.068454</v>
+        <v>0.01752266666666667</v>
       </c>
       <c r="H10">
-        <v>0.205362</v>
+        <v>0.052568</v>
       </c>
       <c r="I10">
-        <v>0.2077740489340757</v>
+        <v>0.0601694469053391</v>
       </c>
       <c r="J10">
-        <v>0.2077740489340757</v>
+        <v>0.06016944690533912</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.82660033333333</v>
+        <v>0.8605153333333333</v>
       </c>
       <c r="N10">
-        <v>32.479801</v>
+        <v>2.581546</v>
       </c>
       <c r="O10">
-        <v>0.954196775852751</v>
+        <v>0.630282566155296</v>
       </c>
       <c r="P10">
-        <v>0.954196775852751</v>
+        <v>0.630282566155296</v>
       </c>
       <c r="Q10">
-        <v>0.741124099218</v>
+        <v>0.01507852334755555</v>
       </c>
       <c r="R10">
-        <v>6.670116892962</v>
+        <v>0.135706710128</v>
       </c>
       <c r="S10">
-        <v>0.1982573275987667</v>
+        <v>0.03792375339964196</v>
       </c>
       <c r="T10">
-        <v>0.1982573275987667</v>
+        <v>0.03792375339964197</v>
       </c>
     </row>
   </sheetData>
